--- a/【業務委託】作業報告書_YYYYMM_template.xlsx
+++ b/【業務委託】作業報告書_YYYYMM_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nakanishi-keng\work\Administrative Tasks\Vendor管理\YSTエンジニアリング\請求処理\202408\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\j_taniai_ap-com\test-repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A472C72-79A1-4747-BF73-32732EEDAA57}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFECED8C-8C2D-4413-B778-0B3744DB78DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14400" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-14145" yWindow="-21720" windowWidth="51840" windowHeight="21390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="作業報告書" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>作業報告書</t>
   </si>
@@ -110,6 +110,10 @@
   </si>
   <si>
     <t>★左記の承認印欄に現場上長の判子をいただいてください。</t>
+  </si>
+  <si>
+    <t>ttttt</t>
+    <phoneticPr fontId="8"/>
   </si>
 </sst>
 </file>
@@ -800,21 +804,21 @@
   <dimension ref="A1:U227"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+      <selection activeCell="J4" sqref="J4:J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.6328125" style="1" customWidth="1"/>
-    <col min="2" max="3" width="3.81640625" style="2"/>
+    <col min="1" max="1" width="2.6640625" style="1" customWidth="1"/>
+    <col min="2" max="3" width="3.77734375" style="2"/>
     <col min="4" max="4" width="6" style="2"/>
-    <col min="5" max="8" width="10.36328125" style="2"/>
+    <col min="5" max="8" width="10.33203125" style="2"/>
     <col min="9" max="9" width="15" style="2"/>
-    <col min="10" max="10" width="25.6328125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="8.1796875" style="2"/>
-    <col min="12" max="12" width="2.6328125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="8.6328125" style="2" customWidth="1"/>
-    <col min="14" max="14" width="11.6328125" style="2" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="25.6640625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="8.21875" style="2"/>
+    <col min="12" max="12" width="2.6640625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="8.6640625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="11.6640625" style="2" hidden="1" customWidth="1"/>
     <col min="15" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -837,7 +841,7 @@
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
     </row>
-    <row r="2" spans="1:15" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -882,7 +886,9 @@
       <c r="I4" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="27"/>
+      <c r="J4" s="27" t="s">
+        <v>25</v>
+      </c>
       <c r="K4" s="28"/>
       <c r="M4" s="13" t="s">
         <v>4</v>
@@ -901,7 +907,7 @@
       <c r="K5" s="28"/>
       <c r="M5" s="14"/>
     </row>
-    <row r="6" spans="1:15" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -962,7 +968,7 @@
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
     </row>
-    <row r="9" spans="1:15" ht="41.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" ht="41.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="4">
         <f>IF(MONTH(DATE(YEAR($J$3),MONTH($J$3),ROW(A1)))=MONTH($J$3),DATE(YEAR($J$3),MONTH($J$3),ROW(A1)),"")</f>
         <v>45536</v>
@@ -995,7 +1001,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="44.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" ht="44.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="4">
         <f t="shared" ref="B10:B39" si="2">IF(MONTH(DATE(YEAR($J$3),MONTH($J$3),ROW(A2)))=MONTH($J$3),DATE(YEAR($J$3),MONTH($J$3),ROW(A2)),"")</f>
         <v>45537</v>
@@ -1199,7 +1205,7 @@
       </c>
       <c r="O16" s="15"/>
     </row>
-    <row r="17" spans="2:15" ht="36.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:15" ht="36.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="4">
         <f t="shared" si="2"/>
         <v>45544</v>
@@ -1664,7 +1670,7 @@
       </c>
       <c r="O31" s="15"/>
     </row>
-    <row r="32" spans="2:15" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:15" ht="28.05" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="4">
         <f t="shared" si="2"/>
         <v>45559</v>
@@ -1689,7 +1695,7 @@
       </c>
       <c r="O32" s="15"/>
     </row>
-    <row r="33" spans="2:15" ht="27.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:15" ht="27.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="4">
         <f t="shared" si="2"/>
         <v>45560</v>
@@ -1782,7 +1788,7 @@
       </c>
       <c r="O35" s="15"/>
     </row>
-    <row r="36" spans="2:15" ht="29.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:15" ht="29.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="4">
         <f t="shared" si="2"/>
         <v>45563</v>
@@ -1850,7 +1856,7 @@
       </c>
       <c r="O37" s="15"/>
     </row>
-    <row r="38" spans="2:15" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" ht="31.05" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="4">
         <f t="shared" si="2"/>
         <v>45565</v>
@@ -1935,7 +1941,7 @@
       </c>
       <c r="O40" s="15"/>
     </row>
-    <row r="41" spans="2:15" s="1" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:15" s="1" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N41" s="15">
         <v>42795</v>
       </c>
@@ -2023,7 +2029,7 @@
       </c>
       <c r="O46" s="15"/>
     </row>
-    <row r="47" spans="2:15" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:15" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -2107,7 +2113,7 @@
       <c r="T50" s="17"/>
       <c r="U50" s="17"/>
     </row>
-    <row r="51" spans="2:21" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:21" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N51" s="16">
         <v>43101</v>
       </c>
@@ -3179,7 +3185,7 @@
   </dataValidations>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="73" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="77" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>